--- a/graph/main/survey.xlsx
+++ b/graph/main/survey.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\cx\cky\EE\graph\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD53122D-C208-4E0A-BE02-35BA6F3FCD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FA0B2E-5AA5-4561-B397-0C9F6236CCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,190 +730,190 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>1.35113162644532E-2</c:v>
+                  <c:v>2.0225298657740899E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9446479953718799E-2</c:v>
+                  <c:v>4.2826554875457397E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9913605657044101E-2</c:v>
+                  <c:v>3.0711803177626E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6417586340967199E-2</c:v>
+                  <c:v>3.8728539552325199E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0273896526768399E-2</c:v>
+                  <c:v>2.9446195025620001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1280836039738899E-2</c:v>
+                  <c:v>5.1517321144342897E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.40149357164739E-2</c:v>
+                  <c:v>2.1127651440958298E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.49749652291758E-2</c:v>
+                  <c:v>5.0663191847349999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.26897000138459E-2</c:v>
+                  <c:v>3.53681622573805E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4086795207589997E-3</c:v>
+                  <c:v>8.9910406621125007E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8219631966195697E-2</c:v>
+                  <c:v>5.5671932981959001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.97297884025E-2</c:v>
+                  <c:v>2.8857091337533902E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8074017481173999E-3</c:v>
+                  <c:v>8.9211621422049005E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.05896098792261E-2</c:v>
+                  <c:v>6.4662210125440198E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.2763021576364198E-2</c:v>
+                  <c:v>6.1828509213504197E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8692973343285699E-2</c:v>
+                  <c:v>4.4310830303096398E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7774108289636499E-2</c:v>
+                  <c:v>2.5612880425189902E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.76494482017991E-2</c:v>
+                  <c:v>2.6397193455693201E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.9280006299587299E-2</c:v>
+                  <c:v>5.56675048608547E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.2814795771238199E-2</c:v>
+                  <c:v>5.0813041598738798E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7484803885885199E-2</c:v>
+                  <c:v>3.4654069985455498E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2460345270732301E-2</c:v>
+                  <c:v>3.2519366278034402E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0557128734579999E-3</c:v>
+                  <c:v>4.5540574729080003E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0601868744036401E-2</c:v>
+                  <c:v>3.0815886422131698E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.4294724651830998E-2</c:v>
+                  <c:v>4.8599280440805498E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.8607543409203399E-2</c:v>
+                  <c:v>4.0607523386420298E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.8551966055975601E-2</c:v>
+                  <c:v>4.0591010291536798E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.8458531037710699E-2</c:v>
+                  <c:v>3.1938549483688398E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.0490786792486201E-2</c:v>
+                  <c:v>4.6440630777459399E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.0932752491451E-3</c:v>
+                  <c:v>1.16265982482632E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.3166802402624E-3</c:v>
+                  <c:v>2.7880190552433E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.87559239460616E-2</c:v>
+                  <c:v>5.6064750178401498E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.9872152841458801E-2</c:v>
+                  <c:v>5.8275935477087301E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.51565194879652E-2</c:v>
+                  <c:v>2.2541944571043901E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.5391202419113999E-3</c:v>
+                  <c:v>3.8104622093449001E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.8174190162651002E-3</c:v>
+                  <c:v>8.1783486485401992E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.31606585554564E-2</c:v>
+                  <c:v>4.84246441312879E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.0036784441629499E-2</c:v>
+                  <c:v>2.9730798949182301E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.5709748130602001E-2</c:v>
+                  <c:v>5.21525155602761E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.4755005716815302E-2</c:v>
+                  <c:v>4.4322801853066099E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.53945319526248E-2</c:v>
+                  <c:v>3.7532889579734899E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2999914715538101E-2</c:v>
+                  <c:v>6.1765114996013698E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.22182037562412E-2</c:v>
+                  <c:v>4.4724870518896502E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.0327523413514701E-2</c:v>
+                  <c:v>7.3583433731888304E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.44546291487677E-2</c:v>
+                  <c:v>4.8810680445982198E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.2102899026320202E-2</c:v>
+                  <c:v>3.2177162288897297E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2372569212413601E-2</c:v>
+                  <c:v>1.8070392763798598E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.8162697450217902E-2</c:v>
+                  <c:v>4.3346703930989001E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.8528497450275998E-3</c:v>
+                  <c:v>9.7390254785028E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.3312732833008099E-2</c:v>
+                  <c:v>3.3870558407767502E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.96684689715424E-2</c:v>
+                  <c:v>3.6917877658434101E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.3905840825264601E-2</c:v>
+                  <c:v>3.3541809328619401E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.58932895774024E-2</c:v>
+                  <c:v>4.1186400413280602E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.4976554180975701E-2</c:v>
+                  <c:v>4.7556172905340102E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.51343361821059E-2</c:v>
+                  <c:v>3.7418712150251499E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.2356889171147999E-3</c:v>
+                  <c:v>4.6527016596767997E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.5923053573939399E-2</c:v>
+                  <c:v>2.2617838269981701E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.7103585595290098E-2</c:v>
+                  <c:v>6.7754235606344707E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.17148626259404E-2</c:v>
+                  <c:v>4.4596484085801698E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.9854440904055992E-3</c:v>
+                  <c:v>1.1888266549734801E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.15322774254242E-2</c:v>
+                  <c:v>4.4698128215310599E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,190 +1414,190 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>1.35113162644532E-2</c:v>
+                  <c:v>2.0225298657740899E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9446479953718799E-2</c:v>
+                  <c:v>4.2826554875457397E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9913605657044101E-2</c:v>
+                  <c:v>3.0711803177626E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6417586340967199E-2</c:v>
+                  <c:v>3.8728539552325199E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0273896526768399E-2</c:v>
+                  <c:v>2.9446195025620001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1280836039738899E-2</c:v>
+                  <c:v>5.1517321144342897E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.40149357164739E-2</c:v>
+                  <c:v>2.1127651440958298E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.49749652291758E-2</c:v>
+                  <c:v>5.0663191847349999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.26897000138459E-2</c:v>
+                  <c:v>3.53681622573805E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4086795207589997E-3</c:v>
+                  <c:v>8.9910406621125007E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8219631966195697E-2</c:v>
+                  <c:v>5.5671932981959001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.97297884025E-2</c:v>
+                  <c:v>2.8857091337533902E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8074017481173999E-3</c:v>
+                  <c:v>8.9211621422049005E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.05896098792261E-2</c:v>
+                  <c:v>6.4662210125440198E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.2763021576364198E-2</c:v>
+                  <c:v>6.1828509213504197E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8692973343285699E-2</c:v>
+                  <c:v>4.4310830303096398E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7774108289636499E-2</c:v>
+                  <c:v>2.5612880425189902E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.76494482017991E-2</c:v>
+                  <c:v>2.6397193455693201E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.9280006299587299E-2</c:v>
+                  <c:v>5.56675048608547E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.2814795771238199E-2</c:v>
+                  <c:v>5.0813041598738798E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7484803885885199E-2</c:v>
+                  <c:v>3.4654069985455498E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2460345270732301E-2</c:v>
+                  <c:v>3.2519366278034402E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0557128734579999E-3</c:v>
+                  <c:v>4.5540574729080003E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0601868744036401E-2</c:v>
+                  <c:v>3.0815886422131698E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.4294724651830998E-2</c:v>
+                  <c:v>4.8599280440805498E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.8607543409203399E-2</c:v>
+                  <c:v>4.0607523386420298E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.8551966055975601E-2</c:v>
+                  <c:v>4.0591010291536798E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.8458531037710699E-2</c:v>
+                  <c:v>3.1938549483688398E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.0490786792486201E-2</c:v>
+                  <c:v>4.6440630777459399E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.0932752491451E-3</c:v>
+                  <c:v>1.16265982482632E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.3166802402624E-3</c:v>
+                  <c:v>2.7880190552433E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.87559239460616E-2</c:v>
+                  <c:v>5.6064750178401498E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.9872152841458801E-2</c:v>
+                  <c:v>5.8275935477087301E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.51565194879652E-2</c:v>
+                  <c:v>2.2541944571043901E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.5391202419113999E-3</c:v>
+                  <c:v>3.8104622093449001E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.8174190162651002E-3</c:v>
+                  <c:v>8.1783486485401992E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.31606585554564E-2</c:v>
+                  <c:v>4.84246441312879E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.0036784441629499E-2</c:v>
+                  <c:v>2.9730798949182301E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.5709748130602001E-2</c:v>
+                  <c:v>5.21525155602761E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.4755005716815302E-2</c:v>
+                  <c:v>4.4322801853066099E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.53945319526248E-2</c:v>
+                  <c:v>3.7532889579734899E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2999914715538101E-2</c:v>
+                  <c:v>6.1765114996013698E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.22182037562412E-2</c:v>
+                  <c:v>4.4724870518896502E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.0327523413514701E-2</c:v>
+                  <c:v>7.3583433731888304E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.44546291487677E-2</c:v>
+                  <c:v>4.8810680445982198E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.2102899026320202E-2</c:v>
+                  <c:v>3.2177162288897297E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2372569212413601E-2</c:v>
+                  <c:v>1.8070392763798598E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.8162697450217902E-2</c:v>
+                  <c:v>4.3346703930989001E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.8528497450275998E-3</c:v>
+                  <c:v>9.7390254785028E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.3312732833008099E-2</c:v>
+                  <c:v>3.3870558407767502E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.96684689715424E-2</c:v>
+                  <c:v>3.6917877658434101E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.3905840825264601E-2</c:v>
+                  <c:v>3.3541809328619401E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.58932895774024E-2</c:v>
+                  <c:v>4.1186400413280602E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.4976554180975701E-2</c:v>
+                  <c:v>4.7556172905340102E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.51343361821059E-2</c:v>
+                  <c:v>3.7418712150251499E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.2356889171147999E-3</c:v>
+                  <c:v>4.6527016596767997E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.5923053573939399E-2</c:v>
+                  <c:v>2.2617838269981701E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.7103585595290098E-2</c:v>
+                  <c:v>6.7754235606344707E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.17148626259404E-2</c:v>
+                  <c:v>4.4596484085801698E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.9854440904055992E-3</c:v>
+                  <c:v>1.1888266549734801E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.15322774254242E-2</c:v>
+                  <c:v>4.4698128215310599E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2077,7 +2077,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -2198,190 +2198,190 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>1.35113162644532E-2</c:v>
+                  <c:v>2.0225298657740899E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9446479953718799E-2</c:v>
+                  <c:v>4.2826554875457397E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9913605657044101E-2</c:v>
+                  <c:v>3.0711803177626E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6417586340967199E-2</c:v>
+                  <c:v>3.8728539552325199E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0273896526768399E-2</c:v>
+                  <c:v>2.9446195025620001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1280836039738899E-2</c:v>
+                  <c:v>5.1517321144342897E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.40149357164739E-2</c:v>
+                  <c:v>2.1127651440958298E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.49749652291758E-2</c:v>
+                  <c:v>5.0663191847349999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.26897000138459E-2</c:v>
+                  <c:v>3.53681622573805E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4086795207589997E-3</c:v>
+                  <c:v>8.9910406621125007E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8219631966195697E-2</c:v>
+                  <c:v>5.5671932981959001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.97297884025E-2</c:v>
+                  <c:v>2.8857091337533902E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8074017481173999E-3</c:v>
+                  <c:v>8.9211621422049005E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.05896098792261E-2</c:v>
+                  <c:v>6.4662210125440198E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.2763021576364198E-2</c:v>
+                  <c:v>6.1828509213504197E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8692973343285699E-2</c:v>
+                  <c:v>4.4310830303096398E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7774108289636499E-2</c:v>
+                  <c:v>2.5612880425189902E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.76494482017991E-2</c:v>
+                  <c:v>2.6397193455693201E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.9280006299587299E-2</c:v>
+                  <c:v>5.56675048608547E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.2814795771238199E-2</c:v>
+                  <c:v>5.0813041598738798E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7484803885885199E-2</c:v>
+                  <c:v>3.4654069985455498E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2460345270732301E-2</c:v>
+                  <c:v>3.2519366278034402E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0557128734579999E-3</c:v>
+                  <c:v>4.5540574729080003E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0601868744036401E-2</c:v>
+                  <c:v>3.0815886422131698E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.4294724651830998E-2</c:v>
+                  <c:v>4.8599280440805498E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.8607543409203399E-2</c:v>
+                  <c:v>4.0607523386420298E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.8551966055975601E-2</c:v>
+                  <c:v>4.0591010291536798E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.8458531037710699E-2</c:v>
+                  <c:v>3.1938549483688398E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.0490786792486201E-2</c:v>
+                  <c:v>4.6440630777459399E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.0932752491451E-3</c:v>
+                  <c:v>1.16265982482632E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.3166802402624E-3</c:v>
+                  <c:v>2.7880190552433E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.87559239460616E-2</c:v>
+                  <c:v>5.6064750178401498E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.9872152841458801E-2</c:v>
+                  <c:v>5.8275935477087301E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.51565194879652E-2</c:v>
+                  <c:v>2.2541944571043901E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.5391202419113999E-3</c:v>
+                  <c:v>3.8104622093449001E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.8174190162651002E-3</c:v>
+                  <c:v>8.1783486485401992E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.31606585554564E-2</c:v>
+                  <c:v>4.84246441312879E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.0036784441629499E-2</c:v>
+                  <c:v>2.9730798949182301E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.5709748130602001E-2</c:v>
+                  <c:v>5.21525155602761E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.4755005716815302E-2</c:v>
+                  <c:v>4.4322801853066099E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.53945319526248E-2</c:v>
+                  <c:v>3.7532889579734899E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2999914715538101E-2</c:v>
+                  <c:v>6.1765114996013698E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.22182037562412E-2</c:v>
+                  <c:v>4.4724870518896502E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.0327523413514701E-2</c:v>
+                  <c:v>7.3583433731888304E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.44546291487677E-2</c:v>
+                  <c:v>4.8810680445982198E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.2102899026320202E-2</c:v>
+                  <c:v>3.2177162288897297E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2372569212413601E-2</c:v>
+                  <c:v>1.8070392763798598E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.8162697450217902E-2</c:v>
+                  <c:v>4.3346703930989001E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.8528497450275998E-3</c:v>
+                  <c:v>9.7390254785028E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.3312732833008099E-2</c:v>
+                  <c:v>3.3870558407767502E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.96684689715424E-2</c:v>
+                  <c:v>3.6917877658434101E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.3905840825264601E-2</c:v>
+                  <c:v>3.3541809328619401E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.58932895774024E-2</c:v>
+                  <c:v>4.1186400413280602E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.4976554180975701E-2</c:v>
+                  <c:v>4.7556172905340102E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.51343361821059E-2</c:v>
+                  <c:v>3.7418712150251499E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.2356889171147999E-3</c:v>
+                  <c:v>4.6527016596767997E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.5923053573939399E-2</c:v>
+                  <c:v>2.2617838269981701E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.7103585595290098E-2</c:v>
+                  <c:v>6.7754235606344707E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.17148626259404E-2</c:v>
+                  <c:v>4.4596484085801698E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.9854440904055992E-3</c:v>
+                  <c:v>1.1888266549734801E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.15322774254242E-2</c:v>
+                  <c:v>4.4698128215310599E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4855,8 +4855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F56" zoomScale="153" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4907,7 +4907,7 @@
         <v>115</v>
       </c>
       <c r="F2">
-        <v>1.35113162644532E-2</v>
+        <v>2.0225298657740899E-2</v>
       </c>
       <c r="G2">
         <v>0.13612408071658899</v>
@@ -4948,7 +4948,7 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>2.9446479953718799E-2</v>
+        <v>4.2826554875457397E-2</v>
       </c>
       <c r="G3">
         <v>0.46081320762265399</v>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J63" si="0">_xlfn.RANK.AVG(F3,$F$2:$F$63)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K63" si="1">_xlfn.RANK.AVG(I3,$I$2:$I$63)</f>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L63" si="2">(J3-K3)^2</f>
-        <v>900</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -4989,7 +4989,7 @@
         <v>30</v>
       </c>
       <c r="F4">
-        <v>1.9913605657044101E-2</v>
+        <v>3.0711803177626E-2</v>
       </c>
       <c r="G4">
         <v>0.22669130894986</v>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>121</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -5030,7 +5030,7 @@
         <v>85</v>
       </c>
       <c r="F5">
-        <v>2.6417586340967199E-2</v>
+        <v>3.8728539552325199E-2</v>
       </c>
       <c r="G5">
         <v>0.798195528773325</v>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
-        <v>1296</v>
+        <v>961</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -5071,7 +5071,7 @@
         <v>35</v>
       </c>
       <c r="F6">
-        <v>2.0273896526768399E-2</v>
+        <v>2.9446195025620001E-2</v>
       </c>
       <c r="G6">
         <v>7.2644131743312496E-2</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="2"/>
-        <v>784</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -5112,7 +5112,7 @@
         <v>25</v>
       </c>
       <c r="F7">
-        <v>3.1280836039738899E-2</v>
+        <v>5.1517321144342897E-2</v>
       </c>
       <c r="G7">
         <v>0.50389955872111603</v>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
-        <v>484</v>
+        <v>676</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -5153,7 +5153,7 @@
         <v>165</v>
       </c>
       <c r="F8">
-        <v>1.40149357164739E-2</v>
+        <v>2.1127651440958298E-2</v>
       </c>
       <c r="G8">
         <v>5.6253457111820102E-2</v>
@@ -5235,7 +5235,7 @@
         <v>110</v>
       </c>
       <c r="F10">
-        <v>3.49749652291758E-2</v>
+        <v>5.0663191847349999E-2</v>
       </c>
       <c r="G10">
         <v>0.242148275553522</v>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>841</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -5276,7 +5276,7 @@
         <v>80</v>
       </c>
       <c r="F11">
-        <v>2.26897000138459E-2</v>
+        <v>3.53681622573805E-2</v>
       </c>
       <c r="G11">
         <v>0.40990191188694902</v>
@@ -5317,7 +5317,7 @@
         <v>210</v>
       </c>
       <c r="F12">
-        <v>4.4086795207589997E-3</v>
+        <v>8.9910406621125007E-3</v>
       </c>
       <c r="G12">
         <v>0.16655242636467499</v>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
-        <v>2704</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -5358,7 +5358,7 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>3.8219631966195697E-2</v>
+        <v>5.5671932981959001E-2</v>
       </c>
       <c r="G13">
         <v>0.236441621918172</v>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -5399,7 +5399,7 @@
         <v>30</v>
       </c>
       <c r="F14">
-        <v>1.97297884025E-2</v>
+        <v>2.8857091337533902E-2</v>
       </c>
       <c r="G14">
         <v>0.58987083412540398</v>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>256</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -5440,7 +5440,7 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <v>5.8074017481173999E-3</v>
+        <v>8.9211621422049005E-3</v>
       </c>
       <c r="G15">
         <v>0.105948768194326</v>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
-        <v>1849</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -5481,7 +5481,7 @@
         <v>35</v>
       </c>
       <c r="F16">
-        <v>4.05896098792261E-2</v>
+        <v>6.4662210125440198E-2</v>
       </c>
       <c r="G16">
         <v>0.65218789472113703</v>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="2"/>
-        <v>1600</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -5522,7 +5522,7 @@
         <v>105</v>
       </c>
       <c r="F17">
-        <v>4.2763021576364198E-2</v>
+        <v>6.1828509213504197E-2</v>
       </c>
       <c r="G17">
         <v>0.10243495905500299</v>
@@ -5563,7 +5563,7 @@
         <v>25</v>
       </c>
       <c r="F18">
-        <v>2.8692973343285699E-2</v>
+        <v>4.4310830303096398E-2</v>
       </c>
       <c r="G18">
         <v>0.51428114302475503</v>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
@@ -5584,7 +5584,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
-        <v>576</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -5604,7 +5604,7 @@
         <v>30</v>
       </c>
       <c r="F19">
-        <v>1.7774108289636499E-2</v>
+        <v>2.5612880425189902E-2</v>
       </c>
       <c r="G19">
         <v>0.139673244246423</v>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
-        <v>1296</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -5645,7 +5645,7 @@
         <v>180</v>
       </c>
       <c r="F20">
-        <v>1.76494482017991E-2</v>
+        <v>2.6397193455693201E-2</v>
       </c>
       <c r="G20">
         <v>0.607991213326455</v>
@@ -5686,7 +5686,7 @@
         <v>55</v>
       </c>
       <c r="F21">
-        <v>3.9280006299587299E-2</v>
+        <v>5.56675048608547E-2</v>
       </c>
       <c r="G21">
         <v>0.32012350342426299</v>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
-        <v>324</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -5727,7 +5727,7 @@
         <v>90</v>
       </c>
       <c r="F22">
-        <v>3.2814795771238199E-2</v>
+        <v>5.0813041598738798E-2</v>
       </c>
       <c r="G22">
         <v>0.67539504582233401</v>
@@ -5768,7 +5768,7 @@
         <v>45</v>
       </c>
       <c r="F23">
-        <v>1.7484803885885199E-2</v>
+        <v>3.4654069985455498E-2</v>
       </c>
       <c r="G23">
         <v>0.29879486507728598</v>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -5809,7 +5809,7 @@
         <v>340</v>
       </c>
       <c r="F24">
-        <v>2.2460345270732301E-2</v>
+        <v>3.2519366278034402E-2</v>
       </c>
       <c r="G24">
         <v>0.42626178912996598</v>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
-        <v>484</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -5850,7 +5850,7 @@
         <v>70</v>
       </c>
       <c r="F25">
-        <v>4.0557128734579999E-3</v>
+        <v>4.5540574729080003E-3</v>
       </c>
       <c r="G25">
         <v>0.144587719327019</v>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="2"/>
-        <v>324</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -5891,7 +5891,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>2.0601868744036401E-2</v>
+        <v>3.0815886422131698E-2</v>
       </c>
       <c r="G26">
         <v>0.15463521087493601</v>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
@@ -5912,7 +5912,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
-        <v>529</v>
+        <v>676</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -5932,7 +5932,7 @@
         <v>55</v>
       </c>
       <c r="F27">
-        <v>3.4294724651830998E-2</v>
+        <v>4.8599280440805498E-2</v>
       </c>
       <c r="G27">
         <v>8.4253782041722597E-2</v>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
@@ -5953,7 +5953,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
-        <v>1296</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -5973,7 +5973,7 @@
         <v>165</v>
       </c>
       <c r="F28">
-        <v>2.8607543409203399E-2</v>
+        <v>4.0607523386420298E-2</v>
       </c>
       <c r="G28">
         <v>6.6235318573952803E-2</v>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -6014,7 +6014,7 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>2.8551966055975601E-2</v>
+        <v>4.0591010291536798E-2</v>
       </c>
       <c r="G29">
         <v>9.2324410636269005E-2</v>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>676</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -6055,7 +6055,7 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>1.8458531037710699E-2</v>
+        <v>3.1938549483688398E-2</v>
       </c>
       <c r="G30">
         <v>0.379078445850212</v>
@@ -6068,7 +6068,7 @@
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -6096,7 +6096,7 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>3.0490786792486201E-2</v>
+        <v>4.6440630777459399E-2</v>
       </c>
       <c r="G31">
         <v>0.27662866153393501</v>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>729</v>
+        <v>625</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -6137,7 +6137,7 @@
         <v>225</v>
       </c>
       <c r="F32">
-        <v>7.0932752491451E-3</v>
+        <v>1.16265982482632E-2</v>
       </c>
       <c r="G32">
         <v>8.4561085009958695E-2</v>
@@ -6178,7 +6178,7 @@
         <v>75</v>
       </c>
       <c r="F33">
-        <v>2.3166802402624E-3</v>
+        <v>2.7880190552433E-3</v>
       </c>
       <c r="G33">
         <v>0.212873861727888</v>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>2401</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -6219,7 +6219,7 @@
         <v>75</v>
       </c>
       <c r="F34">
-        <v>2.87559239460616E-2</v>
+        <v>5.6064750178401498E-2</v>
       </c>
       <c r="G34">
         <v>0.308125354279698</v>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>196</v>
+        <v>676</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -6260,7 +6260,7 @@
         <v>65</v>
       </c>
       <c r="F35">
-        <v>2.9872152841458801E-2</v>
+        <v>5.8275935477087301E-2</v>
       </c>
       <c r="G35">
         <v>0.32256812458900602</v>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>225</v>
+        <v>676</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -6301,7 +6301,7 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>1.51565194879652E-2</v>
+        <v>2.2541944571043901E-2</v>
       </c>
       <c r="G36">
         <v>0.111119993870895</v>
@@ -6342,7 +6342,7 @@
         <v>60</v>
       </c>
       <c r="F37">
-        <v>2.5391202419113999E-3</v>
+        <v>3.8104622093449001E-3</v>
       </c>
       <c r="G37">
         <v>0.30160735476473</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K37">
         <f t="shared" si="1"/>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>625</v>
+        <v>676</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -6383,7 +6383,7 @@
         <v>205</v>
       </c>
       <c r="F38">
-        <v>4.8174190162651002E-3</v>
+        <v>8.1783486485401992E-3</v>
       </c>
       <c r="G38">
         <v>8.1131509679138805E-2</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="L38">
         <f t="shared" si="2"/>
-        <v>1444</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -6424,7 +6424,7 @@
         <v>45</v>
       </c>
       <c r="F39">
-        <v>2.31606585554564E-2</v>
+        <v>4.84246441312879E-2</v>
       </c>
       <c r="G39">
         <v>7.7625024905359802E-2</v>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="L39">
         <f t="shared" si="2"/>
-        <v>361</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -6465,7 +6465,7 @@
         <v>60</v>
       </c>
       <c r="F40">
-        <v>2.0036784441629499E-2</v>
+        <v>2.9730798949182301E-2</v>
       </c>
       <c r="G40">
         <v>0.585128791332995</v>
@@ -6478,7 +6478,7 @@
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
-        <v>256</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -6506,7 +6506,7 @@
         <v>130</v>
       </c>
       <c r="F41">
-        <v>3.5709748130602001E-2</v>
+        <v>5.21525155602761E-2</v>
       </c>
       <c r="G41">
         <v>0.29307562532091203</v>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
@@ -6527,7 +6527,7 @@
       </c>
       <c r="L41">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -6547,7 +6547,7 @@
         <v>35</v>
       </c>
       <c r="F42">
-        <v>2.4755005716815302E-2</v>
+        <v>4.4322801853066099E-2</v>
       </c>
       <c r="G42">
         <v>0.18608713254018999</v>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K42">
         <f t="shared" si="1"/>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="L42">
         <f t="shared" si="2"/>
-        <v>196</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -6588,7 +6588,7 @@
         <v>165</v>
       </c>
       <c r="F43">
-        <v>2.53945319526248E-2</v>
+        <v>3.7532889579734899E-2</v>
       </c>
       <c r="G43">
         <v>0.88591116899686295</v>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K43">
         <f t="shared" si="1"/>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="L43">
         <f t="shared" si="2"/>
-        <v>1296</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -6629,7 +6629,7 @@
         <v>130</v>
       </c>
       <c r="F44">
-        <v>4.2999914715538101E-2</v>
+        <v>6.1765114996013698E-2</v>
       </c>
       <c r="G44">
         <v>0.77981973274369598</v>
@@ -6642,7 +6642,7 @@
       </c>
       <c r="J44">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
@@ -6650,7 +6650,7 @@
       </c>
       <c r="L44">
         <f t="shared" si="2"/>
-        <v>3364</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -6670,7 +6670,7 @@
         <v>190</v>
       </c>
       <c r="F45">
-        <v>2.22182037562412E-2</v>
+        <v>4.4724870518896502E-2</v>
       </c>
       <c r="G45">
         <v>0.209111376417105</v>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="L45">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -6711,7 +6711,7 @@
         <v>90</v>
       </c>
       <c r="F46">
-        <v>5.0327523413514701E-2</v>
+        <v>7.3583433731888304E-2</v>
       </c>
       <c r="G46">
         <v>0.15408983216528299</v>
@@ -6752,7 +6752,7 @@
         <v>5</v>
       </c>
       <c r="F47">
-        <v>3.44546291487677E-2</v>
+        <v>4.8810680445982198E-2</v>
       </c>
       <c r="G47">
         <v>0.28591277302247903</v>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="J47">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K47">
         <f t="shared" si="1"/>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="L47">
         <f t="shared" si="2"/>
-        <v>625</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -6793,7 +6793,7 @@
         <v>25</v>
       </c>
       <c r="F48">
-        <v>2.2102899026320202E-2</v>
+        <v>3.2177162288897297E-2</v>
       </c>
       <c r="G48">
         <v>0.75762195121951204</v>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="L48">
         <f t="shared" si="2"/>
-        <v>484</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
@@ -6834,7 +6834,7 @@
         <v>165</v>
       </c>
       <c r="F49">
-        <v>1.2372569212413601E-2</v>
+        <v>1.8070392763798598E-2</v>
       </c>
       <c r="G49">
         <v>0.135113705265823</v>
@@ -6875,7 +6875,7 @@
         <v>130</v>
       </c>
       <c r="F50">
-        <v>2.8162697450217902E-2</v>
+        <v>4.3346703930989001E-2</v>
       </c>
       <c r="G50">
         <v>0.371000228204034</v>
@@ -6888,7 +6888,7 @@
       </c>
       <c r="J50">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="L50">
         <f t="shared" si="2"/>
-        <v>361</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -6916,7 +6916,7 @@
         <v>50</v>
       </c>
       <c r="F51">
-        <v>5.8528497450275998E-3</v>
+        <v>9.7390254785028E-3</v>
       </c>
       <c r="G51">
         <v>0.27685940759282401</v>
@@ -6957,7 +6957,7 @@
         <v>50</v>
       </c>
       <c r="F52">
-        <v>2.3312732833008099E-2</v>
+        <v>3.3870558407767502E-2</v>
       </c>
       <c r="G52">
         <v>0.212115563219233</v>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="J52">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K52">
         <f t="shared" si="1"/>
@@ -6978,7 +6978,7 @@
       </c>
       <c r="L52">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -6998,7 +6998,7 @@
         <v>20</v>
       </c>
       <c r="F53">
-        <v>1.96684689715424E-2</v>
+        <v>3.6917877658434101E-2</v>
       </c>
       <c r="G53">
         <v>5.8923673803439998E-2</v>
@@ -7011,7 +7011,7 @@
       </c>
       <c r="J53">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K53">
         <f t="shared" si="1"/>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="L53">
         <f t="shared" si="2"/>
-        <v>484</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
@@ -7039,7 +7039,7 @@
         <v>90</v>
       </c>
       <c r="F54">
-        <v>2.3905840825264601E-2</v>
+        <v>3.3541809328619401E-2</v>
       </c>
       <c r="G54">
         <v>0.53615800486048704</v>
@@ -7052,7 +7052,7 @@
       </c>
       <c r="J54">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K54">
         <f t="shared" si="1"/>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="L54">
         <f t="shared" si="2"/>
-        <v>361</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
@@ -7080,7 +7080,7 @@
         <v>60</v>
       </c>
       <c r="F55">
-        <v>2.58932895774024E-2</v>
+        <v>4.1186400413280602E-2</v>
       </c>
       <c r="G55">
         <v>0.454513206902667</v>
@@ -7093,7 +7093,7 @@
       </c>
       <c r="J55">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K55">
         <f t="shared" si="1"/>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="L55">
         <f t="shared" si="2"/>
-        <v>256</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -7121,7 +7121,7 @@
         <v>140</v>
       </c>
       <c r="F56">
-        <v>2.4976554180975701E-2</v>
+        <v>4.7556172905340102E-2</v>
       </c>
       <c r="G56">
         <v>8.5251630941286294E-2</v>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K56">
         <f t="shared" si="1"/>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="L56">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
@@ -7162,7 +7162,7 @@
         <v>115</v>
       </c>
       <c r="F57">
-        <v>2.51343361821059E-2</v>
+        <v>3.7418712150251499E-2</v>
       </c>
       <c r="G57">
         <v>0.355505908052825</v>
@@ -7175,7 +7175,7 @@
       </c>
       <c r="J57">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K57">
         <f t="shared" si="1"/>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="L57">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -7203,7 +7203,7 @@
         <v>155</v>
       </c>
       <c r="F58">
-        <v>2.2356889171147999E-3</v>
+        <v>4.6527016596767997E-3</v>
       </c>
       <c r="G58">
         <v>0.335756409274509</v>
@@ -7216,7 +7216,7 @@
       </c>
       <c r="J58">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K58">
         <f t="shared" si="1"/>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="L58">
         <f t="shared" si="2"/>
-        <v>961</v>
+        <v>784</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
@@ -7244,7 +7244,7 @@
         <v>40</v>
       </c>
       <c r="F59">
-        <v>1.5923053573939399E-2</v>
+        <v>2.2617838269981701E-2</v>
       </c>
       <c r="G59">
         <v>0.229694264970359</v>
@@ -7285,7 +7285,7 @@
         <v>45</v>
       </c>
       <c r="F60">
-        <v>4.7103585595290098E-2</v>
+        <v>6.7754235606344707E-2</v>
       </c>
       <c r="G60">
         <v>0.44503237072302798</v>
@@ -7326,7 +7326,7 @@
         <v>25</v>
       </c>
       <c r="F61">
-        <v>3.17148626259404E-2</v>
+        <v>4.4596484085801698E-2</v>
       </c>
       <c r="G61">
         <v>0.60776726855832497</v>
@@ -7339,7 +7339,7 @@
       </c>
       <c r="J61">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K61">
         <f t="shared" si="1"/>
@@ -7347,7 +7347,7 @@
       </c>
       <c r="L61">
         <f t="shared" si="2"/>
-        <v>1369</v>
+        <v>841</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
@@ -7367,7 +7367,7 @@
         <v>95</v>
       </c>
       <c r="F62">
-        <v>7.9854440904055992E-3</v>
+        <v>1.1888266549734801E-2</v>
       </c>
       <c r="G62">
         <v>7.7904972139877807E-2</v>
@@ -7408,7 +7408,7 @@
         <v>5</v>
       </c>
       <c r="F63">
-        <v>3.15322774254242E-2</v>
+        <v>4.4698128215310599E-2</v>
       </c>
       <c r="G63">
         <v>0.36509371619822301</v>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="J63">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K63">
         <f t="shared" si="1"/>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="L63">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
@@ -7438,7 +7438,7 @@
       </c>
       <c r="L64">
         <f>SUM(L2:L63)</f>
-        <v>52612</v>
+        <v>51138</v>
       </c>
     </row>
     <row r="65" spans="11:12" x14ac:dyDescent="0.35">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="L66">
         <f>1-6*L64/(L65^3-L65)</f>
-        <v>-0.32487220165697162</v>
+        <v>-0.2877540228148372</v>
       </c>
     </row>
     <row r="67" spans="11:12" x14ac:dyDescent="0.35">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="L67">
         <f>SQRT(L66^2*(L65-2)/(1-L66^2))</f>
-        <v>2.6607752226668007</v>
+        <v>2.3273707338939822</v>
       </c>
     </row>
     <row r="68" spans="11:12" x14ac:dyDescent="0.35">
@@ -7474,7 +7474,7 @@
       </c>
       <c r="L68">
         <f>_xlfn.T.DIST.2T(L67,L65-1)</f>
-        <v>9.9492175784294031E-3</v>
+        <v>2.3280494844070635E-2</v>
       </c>
     </row>
     <row r="69" spans="11:12" x14ac:dyDescent="0.35">

--- a/graph/main/survey.xlsx
+++ b/graph/main/survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\cx\cky\EE\graph\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D8C4D5-AA06-482C-9CD3-F9DC413687C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECDFD54-36A0-4AF3-8DC0-FAC17CF0EC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">processed_survey!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">processed_survey!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$F$1:$G$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -114,12 +114,6 @@
     <t>ry</t>
   </si>
   <si>
-    <t>diff</t>
-  </si>
-  <si>
-    <t>absiff</t>
-  </si>
-  <si>
     <t>Tsun Yip Street</t>
   </si>
   <si>
@@ -141,28 +135,16 @@
     <t>rsquared</t>
   </si>
   <si>
-    <t>se_slope</t>
-  </si>
-  <si>
-    <t>se_intercept</t>
-  </si>
-  <si>
     <t>df</t>
   </si>
   <si>
     <t>rsse</t>
   </si>
   <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>e</t>
+    <t>relative</t>
   </si>
 </sst>
 </file>
@@ -170,11 +152,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +294,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="LM Mono 10"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="LM Mono 10"/>
       <family val="3"/>
     </font>
@@ -664,12 +652,13 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="18" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="18" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -793,48 +782,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="linear"/>
             <c:forward val="1"/>
             <c:backward val="0.1"/>
-            <c:dispRSqr val="1"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="LM Roman 10" panose="00000500000000000000" pitchFamily="50" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>processed_survey!$F$2:$F$69</c:f>
+              <c:f>processed_survey!$F$2:$F$63</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>5.1517321144342897E-2</c:v>
                 </c:pt>
@@ -1020,25 +979,16 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>5.0813041598738798E-2</c:v>
-                </c:pt>
-                <c:pt idx="65" formatCode="General">
-                  <c:v>-2.4383342966902644E-6</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="General">
-                  <c:v>8.8372254501533982E-7</c:v>
-                </c:pt>
-                <c:pt idx="67" formatCode="General">
-                  <c:v>0.11259641290043201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>processed_survey!$I$2:$I$69</c:f>
+              <c:f>processed_survey!$I$2:$I$63</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>2075.0230885618198</c:v>
                 </c:pt>
@@ -1987,13 +1937,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>122735</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>141138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>561163</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>125523</xdr:rowOff>
@@ -2321,10 +2271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -2332,12 +2282,11 @@
     <col min="1" max="5" width="8.7265625" style="1"/>
     <col min="6" max="6" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="8.7265625" style="1"/>
-    <col min="13" max="14" width="13.26953125" style="1" customWidth="1"/>
-    <col min="15" max="16" width="8.7265625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="1"/>
+    <col min="13" max="13" width="18.08984375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2371,23 +2320,17 @@
       <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>22</v>
       </c>
@@ -2423,28 +2366,16 @@
         <f t="shared" ref="K2:K33" si="1">_xlfn.RANK.AVG(I2,$I$2:$I$63)</f>
         <v>37</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="5">
         <f t="shared" ref="L2:L33" si="2">(J2-K2)^2</f>
         <v>676</v>
       </c>
       <c r="N2" s="1">
-        <f>IF(AND(I2&gt;$I$77,I2&lt;$I$76),I2,"")</f>
-        <v>2075.0230885618198</v>
-      </c>
-      <c r="O2" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F27+Sheet1!$B$1)-I2</f>
-        <v>1810.0692964264454</v>
-      </c>
-      <c r="P2" s="1">
-        <f>ABS(O2)</f>
-        <v>1810.0692964264454</v>
-      </c>
-      <c r="Q2" s="1">
-        <f t="shared" ref="Q2:Q33" si="3">(MAX(I:I)-I2)/(MAX(I:I))</f>
+        <f>(MAX(I:I)-I2)/(MAX(I:I))</f>
         <v>0.79760030639960933</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>49</v>
       </c>
@@ -2480,28 +2411,16 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="5">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="N3" s="1" t="str">
-        <f t="shared" ref="N3:N66" si="4">IF(AND(I3&gt;$I$77,I3&lt;$I$76),I3,"")</f>
-        <v/>
-      </c>
-      <c r="O3" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F23+Sheet1!$B$1)-I3</f>
-        <v>3169.7451411242555</v>
-      </c>
-      <c r="P3" s="1">
-        <f t="shared" ref="P3:P63" si="5">ABS(O3)</f>
-        <v>3169.7451411242555</v>
-      </c>
-      <c r="Q3" s="1">
-        <f t="shared" si="3"/>
+      <c r="N3" s="1">
+        <f>(MAX(I:I)-I3)/(MAX(I:I))</f>
         <v>0.83506107046170575</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>105</v>
       </c>
@@ -2537,28 +2456,16 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="5">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="4"/>
-        <v>3214.2857142857101</v>
-      </c>
-      <c r="O4" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F35+Sheet1!$B$1)-I4</f>
-        <v>-607.52902281381466</v>
-      </c>
-      <c r="P4" s="1">
-        <f t="shared" si="5"/>
-        <v>607.52902281381466</v>
-      </c>
-      <c r="Q4" s="1">
-        <f t="shared" si="3"/>
+        <f>(MAX(I:I)-I4)/(MAX(I:I))</f>
         <v>0.6864755639097756</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>138</v>
       </c>
@@ -2594,28 +2501,16 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="5">
         <f t="shared" si="2"/>
         <v>676</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="4"/>
-        <v>5147.6530929437304</v>
-      </c>
-      <c r="O5" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F50+Sheet1!$B$1)-I5</f>
-        <v>-1659.8333667513398</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" si="5"/>
-        <v>1659.8333667513398</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="3"/>
+        <f>(MAX(I:I)-I5)/(MAX(I:I))</f>
         <v>0.49789310079675586</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>159</v>
       </c>
@@ -2651,28 +2546,16 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="5">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="4"/>
-        <v>2842.7037271004401</v>
-      </c>
-      <c r="O6" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F33+Sheet1!$B$1)-I6</f>
-        <v>532.14882429687805</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="5"/>
-        <v>532.14882429687805</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="3"/>
+        <f>(MAX(I:I)-I6)/(MAX(I:I))</f>
         <v>0.72272001861887902</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>212</v>
       </c>
@@ -2708,28 +2591,16 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="5">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="4"/>
-        <v>5545.9595723822204</v>
-      </c>
-      <c r="O7" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F53+Sheet1!$B$1)-I7</f>
-        <v>-3255.8345396827549</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="5"/>
-        <v>3255.8345396827549</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="3"/>
+        <f>(MAX(I:I)-I7)/(MAX(I:I))</f>
         <v>0.45904191410790046</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>239</v>
       </c>
@@ -2765,28 +2636,16 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="5">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="4"/>
-        <v>7729.92961946793</v>
-      </c>
-      <c r="O8" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F59+Sheet1!$B$1)-I8</f>
-        <v>-4743.6083310203248</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="5"/>
-        <v>4743.6083310203248</v>
-      </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="3"/>
+        <f>(MAX(I:I)-I8)/(MAX(I:I))</f>
         <v>0.24601543223441502</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>290</v>
       </c>
@@ -2822,28 +2681,16 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="5">
         <f t="shared" si="2"/>
         <v>625</v>
       </c>
-      <c r="N9" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O9" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F21+Sheet1!$B$1)-I9</f>
-        <v>1935.1798447739225</v>
-      </c>
-      <c r="P9" s="1">
-        <f t="shared" si="5"/>
-        <v>1935.1798447739225</v>
-      </c>
-      <c r="Q9" s="1">
-        <f t="shared" si="3"/>
+      <c r="N9" s="1">
+        <f>(MAX(I:I)-I9)/(MAX(I:I))</f>
         <v>0.86571962823731041</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>394</v>
       </c>
@@ -2879,28 +2726,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="5">
         <f t="shared" si="2"/>
         <v>2209</v>
       </c>
-      <c r="N10" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O10" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F63+Sheet1!$B$1)-I10</f>
-        <v>-7737.8134087606313</v>
-      </c>
-      <c r="P10" s="1">
-        <f t="shared" si="5"/>
-        <v>7737.8134087606313</v>
-      </c>
-      <c r="Q10" s="1">
-        <f t="shared" si="3"/>
+      <c r="N10" s="1">
+        <f>(MAX(I:I)-I10)/(MAX(I:I))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>421</v>
       </c>
@@ -2936,28 +2771,16 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="5">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="4"/>
-        <v>3436.3518478495698</v>
-      </c>
-      <c r="O11" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F41+Sheet1!$B$1)-I11</f>
-        <v>379.92729371786572</v>
-      </c>
-      <c r="P11" s="1">
-        <f t="shared" si="5"/>
-        <v>379.92729371786572</v>
-      </c>
-      <c r="Q11" s="1">
-        <f t="shared" si="3"/>
+        <f>(MAX(I:I)-I11)/(MAX(I:I))</f>
         <v>0.6648150254607792</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>433</v>
       </c>
@@ -2993,28 +2816,16 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="5">
         <f t="shared" si="2"/>
         <v>1764</v>
       </c>
-      <c r="N12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O12" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F19+Sheet1!$B$1)-I12</f>
-        <v>2360.7751163276798</v>
-      </c>
-      <c r="P12" s="1">
-        <f t="shared" si="5"/>
-        <v>2360.7751163276798</v>
-      </c>
-      <c r="Q12" s="1">
-        <f t="shared" si="3"/>
+      <c r="N12" s="1">
+        <f>(MAX(I:I)-I12)/(MAX(I:I))</f>
         <v>0.87505176902933324</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>458</v>
       </c>
@@ -3050,28 +2861,16 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="5">
         <f t="shared" si="2"/>
         <v>1444</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="4"/>
-        <v>6188.8161978893104</v>
-      </c>
-      <c r="O13" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F56+Sheet1!$B$1)-I13</f>
-        <v>-4180.2641346617311</v>
-      </c>
-      <c r="P13" s="1">
-        <f t="shared" si="5"/>
-        <v>4180.2641346617311</v>
-      </c>
-      <c r="Q13" s="1">
-        <f t="shared" si="3"/>
+        <f>(MAX(I:I)-I13)/(MAX(I:I))</f>
         <v>0.39633707735266371</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>499</v>
       </c>
@@ -3107,28 +2906,16 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="5">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="4"/>
-        <v>2111.5548976342702</v>
-      </c>
-      <c r="O14" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F28+Sheet1!$B$1)-I14</f>
-        <v>1247.4954966472837</v>
-      </c>
-      <c r="P14" s="1">
-        <f t="shared" si="5"/>
-        <v>1247.4954966472837</v>
-      </c>
-      <c r="Q14" s="1">
-        <f t="shared" si="3"/>
+        <f>(MAX(I:I)-I14)/(MAX(I:I))</f>
         <v>0.79403695956087295</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>589</v>
       </c>
@@ -3164,28 +2951,16 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="5">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="4"/>
-        <v>4464.1130362566901</v>
-      </c>
-      <c r="O15" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F47+Sheet1!$B$1)-I15</f>
-        <v>-1391.7873288695273</v>
-      </c>
-      <c r="P15" s="1">
-        <f t="shared" si="5"/>
-        <v>1391.7873288695273</v>
-      </c>
-      <c r="Q15" s="1">
-        <f t="shared" si="3"/>
+        <f>(MAX(I:I)-I15)/(MAX(I:I))</f>
         <v>0.56456623749565327</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>632</v>
       </c>
@@ -3221,28 +2996,16 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="5">
         <f t="shared" si="2"/>
         <v>1936</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="4"/>
-        <v>7596.0547622552804</v>
-      </c>
-      <c r="O16" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F58+Sheet1!$B$1)-I16</f>
-        <v>-4794.6966192685286</v>
-      </c>
-      <c r="P16" s="1">
-        <f t="shared" si="5"/>
-        <v>4794.6966192685286</v>
-      </c>
-      <c r="Q16" s="1">
-        <f t="shared" si="3"/>
+        <f>(MAX(I:I)-I16)/(MAX(I:I))</f>
         <v>0.25907371106996113</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>841</v>
       </c>
@@ -3278,28 +3041,16 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="5">
         <f t="shared" si="2"/>
         <v>1936</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="4"/>
-        <v>5250.7447864945398</v>
-      </c>
-      <c r="O17" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F52+Sheet1!$B$1)-I17</f>
-        <v>-2586.0579542603309</v>
-      </c>
-      <c r="P17" s="1">
-        <f t="shared" si="5"/>
-        <v>2586.0579542603309</v>
-      </c>
-      <c r="Q17" s="1">
-        <f t="shared" si="3"/>
+        <f>(MAX(I:I)-I17)/(MAX(I:I))</f>
         <v>0.4878374405477458</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1015</v>
       </c>
@@ -3335,28 +3086,16 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="5">
         <f t="shared" si="2"/>
         <v>784</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="4"/>
-        <v>3070.5147277595902</v>
-      </c>
-      <c r="O18" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F34+Sheet1!$B$1)-I18</f>
-        <v>-256.51859755244914</v>
-      </c>
-      <c r="P18" s="1">
-        <f t="shared" si="5"/>
-        <v>256.51859755244914</v>
-      </c>
-      <c r="Q18" s="1">
-        <f t="shared" si="3"/>
+        <f>(MAX(I:I)-I18)/(MAX(I:I))</f>
         <v>0.70049912045809382</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>1075</v>
       </c>
@@ -3392,28 +3131,16 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="5">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="N19" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O19" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F13+Sheet1!$B$1)-I19</f>
-        <v>2672.9061592488815</v>
-      </c>
-      <c r="P19" s="1">
-        <f t="shared" si="5"/>
-        <v>2672.9061592488815</v>
-      </c>
-      <c r="Q19" s="1">
-        <f t="shared" si="3"/>
+      <c r="N19" s="1">
+        <f>(MAX(I:I)-I19)/(MAX(I:I))</f>
         <v>0.90196461571173991</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>1107</v>
       </c>
@@ -3449,28 +3176,16 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="5">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="4"/>
-        <v>5236.1396303901201</v>
-      </c>
-      <c r="O20" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F51+Sheet1!$B$1)-I20</f>
-        <v>-2080.2019119245861</v>
-      </c>
-      <c r="P20" s="1">
-        <f t="shared" si="5"/>
-        <v>2080.2019119245861</v>
-      </c>
-      <c r="Q20" s="1">
-        <f t="shared" si="3"/>
+        <f>(MAX(I:I)-I20)/(MAX(I:I))</f>
         <v>0.48926204113981403</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>1210</v>
       </c>
@@ -3506,28 +3221,16 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="5">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="N21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O21" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F15+Sheet1!$B$1)-I21</f>
-        <v>1405.312019855261</v>
-      </c>
-      <c r="P21" s="1">
-        <f t="shared" si="5"/>
-        <v>1405.312019855261</v>
-      </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="3"/>
+      <c r="N21" s="1">
+        <f>(MAX(I:I)-I21)/(MAX(I:I))</f>
         <v>0.89786227565726973</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>1261</v>
       </c>
@@ -3563,28 +3266,16 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="5">
         <f t="shared" si="2"/>
         <v>2304</v>
       </c>
-      <c r="N22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O22" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F61+Sheet1!$B$1)-I22</f>
-        <v>-3683.4258057210491</v>
-      </c>
-      <c r="P22" s="1">
-        <f t="shared" si="5"/>
-        <v>3683.4258057210491</v>
-      </c>
-      <c r="Q22" s="1">
-        <f t="shared" si="3"/>
+      <c r="N22" s="1">
+        <f>(MAX(I:I)-I22)/(MAX(I:I))</f>
         <v>0.20343332935356595</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>1283</v>
       </c>
@@ -3620,28 +3311,16 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="5">
         <f t="shared" si="2"/>
         <v>1681</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="4"/>
-        <v>3729.2173822965801</v>
-      </c>
-      <c r="O23" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F43+Sheet1!$B$1)-I23</f>
-        <v>-743.65862885178058</v>
-      </c>
-      <c r="P23" s="1">
-        <f t="shared" si="5"/>
-        <v>743.65862885178058</v>
-      </c>
-      <c r="Q23" s="1">
-        <f t="shared" si="3"/>
+        <f>(MAX(I:I)-I23)/(MAX(I:I))</f>
         <v>0.63624864720458685</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>1336</v>
       </c>
@@ -3677,28 +3356,16 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="5">
         <f t="shared" si="2"/>
         <v>2401</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="4"/>
-        <v>7927.0210758099602</v>
-      </c>
-      <c r="O24" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F60+Sheet1!$B$1)-I24</f>
-        <v>-3242.2625451072472</v>
-      </c>
-      <c r="P24" s="1">
-        <f t="shared" si="5"/>
-        <v>3242.2625451072472</v>
-      </c>
-      <c r="Q24" s="1">
-        <f t="shared" si="3"/>
+        <f>(MAX(I:I)-I24)/(MAX(I:I))</f>
         <v>0.22679094716975487</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>1375</v>
       </c>
@@ -3734,28 +3401,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="5">
         <f t="shared" si="2"/>
         <v>1849</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="4"/>
-        <v>6009.5022043401596</v>
-      </c>
-      <c r="O25" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F55+Sheet1!$B$1)-I25</f>
-        <v>-4546.6916737562806</v>
-      </c>
-      <c r="P25" s="1">
-        <f t="shared" si="5"/>
-        <v>4546.6916737562806</v>
-      </c>
-      <c r="Q25" s="1">
-        <f t="shared" si="3"/>
+        <f>(MAX(I:I)-I25)/(MAX(I:I))</f>
         <v>0.41382753206262307</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>1495</v>
       </c>
@@ -3791,28 +3446,16 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="5">
         <f t="shared" si="2"/>
         <v>441</v>
       </c>
-      <c r="N26" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O26" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F20+Sheet1!$B$1)-I26</f>
-        <v>1247.9544929639439</v>
-      </c>
-      <c r="P26" s="1">
-        <f t="shared" si="5"/>
-        <v>1247.9544929639439</v>
-      </c>
-      <c r="Q26" s="1">
-        <f t="shared" si="3"/>
+      <c r="N26" s="1">
+        <f>(MAX(I:I)-I26)/(MAX(I:I))</f>
         <v>0.86572237515819517</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>1700</v>
       </c>
@@ -3848,28 +3491,16 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="5">
         <f t="shared" si="2"/>
         <v>1764</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="4"/>
-        <v>6823.83603838411</v>
-      </c>
-      <c r="O27" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F57+Sheet1!$B$1)-I27</f>
-        <v>-2173.4149483845049</v>
-      </c>
-      <c r="P27" s="1">
-        <f t="shared" si="5"/>
-        <v>2173.4149483845049</v>
-      </c>
-      <c r="Q27" s="1">
-        <f t="shared" si="3"/>
+        <f>(MAX(I:I)-I27)/(MAX(I:I))</f>
         <v>0.33439664794019008</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>1735</v>
       </c>
@@ -3905,28 +3536,16 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="5">
         <f t="shared" si="2"/>
         <v>361</v>
       </c>
-      <c r="N28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O28" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F8+Sheet1!$B$1)-I28</f>
-        <v>3857.589366301459</v>
-      </c>
-      <c r="P28" s="1">
-        <f t="shared" si="5"/>
-        <v>3857.589366301459</v>
-      </c>
-      <c r="Q28" s="1">
-        <f t="shared" si="3"/>
+      <c r="N28" s="1">
+        <f>(MAX(I:I)-I28)/(MAX(I:I))</f>
         <v>0.94265153722981021</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>1754</v>
       </c>
@@ -3962,28 +3581,16 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O29" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F10+Sheet1!$B$1)-I29</f>
-        <v>3168.8205456219594</v>
-      </c>
-      <c r="P29" s="1">
-        <f t="shared" si="5"/>
-        <v>3168.8205456219594</v>
-      </c>
-      <c r="Q29" s="1">
-        <f t="shared" si="3"/>
+      <c r="N29" s="1">
+        <f>(MAX(I:I)-I29)/(MAX(I:I))</f>
         <v>0.9365044419037567</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>1804</v>
       </c>
@@ -4019,31 +3626,19 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="5">
         <f t="shared" si="2"/>
         <v>529</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N30" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O30" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F16+Sheet1!$B$1)-I30</f>
-        <v>2806.8071690850866</v>
-      </c>
-      <c r="P30" s="1">
-        <f t="shared" si="5"/>
-        <v>2806.8071690850866</v>
-      </c>
-      <c r="Q30" s="1">
-        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="N30" s="1">
+        <f>(MAX(I:I)-I30)/(MAX(I:I))</f>
         <v>0.89075866848426299</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>1823</v>
       </c>
@@ -4079,31 +3674,19 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="5">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N31" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O31" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F7+Sheet1!$B$1)-I31</f>
-        <v>4162.0656149922415</v>
-      </c>
-      <c r="P31" s="1">
-        <f t="shared" si="5"/>
-        <v>4162.0656149922415</v>
-      </c>
-      <c r="Q31" s="1">
-        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="N31" s="1">
+        <f>(MAX(I:I)-I31)/(MAX(I:I))</f>
         <v>0.94441074955312376</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>1850</v>
       </c>
@@ -4139,31 +3722,19 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="5">
         <f t="shared" si="2"/>
         <v>1024</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N32" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O32" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F2+Sheet1!$B$1)-I32</f>
-        <v>2211.7415061786655</v>
-      </c>
-      <c r="P32" s="1">
-        <f t="shared" si="5"/>
-        <v>2211.7415061786655</v>
-      </c>
-      <c r="Q32" s="1">
-        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="N32" s="1">
+        <f>(MAX(I:I)-I32)/(MAX(I:I))</f>
         <v>0.97366111593838467</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>1868</v>
       </c>
@@ -4199,31 +3770,19 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="5">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O33" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F6+Sheet1!$B$1)-I33</f>
-        <v>2911.4086213099517</v>
-      </c>
-      <c r="P33" s="1">
-        <f t="shared" si="5"/>
-        <v>2911.4086213099517</v>
-      </c>
-      <c r="Q33" s="1">
-        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="N33" s="1">
+        <f>(MAX(I:I)-I33)/(MAX(I:I))</f>
         <v>0.95372048424770661</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>1899</v>
       </c>
@@ -4252,35 +3811,23 @@
         <v>4926.5750828991004</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" ref="J34:J63" si="6">_xlfn.RANK.AVG(F34,$F$2:$F$63)</f>
+        <f t="shared" ref="J34:J63" si="3">_xlfn.RANK.AVG(F34,$F$2:$F$63)</f>
         <v>22</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" ref="K34:K63" si="7">_xlfn.RANK.AVG(I34,$I$2:$I$63)</f>
+        <f t="shared" ref="K34:K63" si="4">_xlfn.RANK.AVG(I34,$I$2:$I$63)</f>
         <v>15</v>
       </c>
-      <c r="L34" s="1">
-        <f t="shared" ref="L34:L63" si="8">(J34-K34)^2</f>
+      <c r="L34" s="5">
+        <f t="shared" ref="L34:L63" si="5">(J34-K34)^2</f>
         <v>49</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="4"/>
-        <v>4926.5750828991004</v>
-      </c>
-      <c r="O34" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F49+Sheet1!$B$1)-I34</f>
-        <v>-3194.5862038364921</v>
-      </c>
-      <c r="P34" s="1">
-        <f t="shared" si="5"/>
-        <v>3194.5862038364921</v>
-      </c>
-      <c r="Q34" s="1">
-        <f t="shared" ref="Q34:Q63" si="9">(MAX(I:I)-I34)/(MAX(I:I))</f>
+        <f t="shared" ref="N34:N63" si="6">(MAX(I:I)-I34)/(MAX(I:I))</f>
         <v>0.51945725675312659</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>1904</v>
       </c>
@@ -4309,35 +3856,23 @@
         <v>2166.7409719126099</v>
       </c>
       <c r="J35" s="1">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="L35" s="5">
+        <f t="shared" si="5"/>
+        <v>441</v>
+      </c>
+      <c r="N35" s="1">
         <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="K35" s="1">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="L35" s="1">
-        <f t="shared" si="8"/>
-        <v>441</v>
-      </c>
-      <c r="N35" s="1">
-        <f t="shared" si="4"/>
-        <v>2166.7409719126099</v>
-      </c>
-      <c r="O35" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F29+Sheet1!$B$1)-I35</f>
-        <v>2244.2507669820507</v>
-      </c>
-      <c r="P35" s="1">
-        <f t="shared" si="5"/>
-        <v>2244.2507669820507</v>
-      </c>
-      <c r="Q35" s="1">
-        <f t="shared" si="9"/>
         <v>0.78865405823967083</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>1938</v>
       </c>
@@ -4366,35 +3901,23 @@
         <v>1572.5288831835601</v>
       </c>
       <c r="J36" s="1">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="L36" s="5">
+        <f t="shared" si="5"/>
+        <v>324</v>
+      </c>
+      <c r="N36" s="1">
         <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="K36" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
-      </c>
-      <c r="L36" s="1">
-        <f t="shared" si="8"/>
-        <v>324</v>
-      </c>
-      <c r="N36" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O36" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F22+Sheet1!$B$1)-I36</f>
-        <v>2453.7403538976109</v>
-      </c>
-      <c r="P36" s="1">
-        <f t="shared" si="5"/>
-        <v>2453.7403538976109</v>
-      </c>
-      <c r="Q36" s="1">
-        <f t="shared" si="9"/>
         <v>0.84661406136222139</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>2004</v>
       </c>
@@ -4423,35 +3946,23 @@
         <v>2792.3905368987298</v>
       </c>
       <c r="J37" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="L37" s="5">
+        <f t="shared" si="5"/>
+        <v>676</v>
+      </c>
+      <c r="N37" s="1">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="7"/>
-        <v>32</v>
-      </c>
-      <c r="L37" s="1">
-        <f t="shared" si="8"/>
-        <v>676</v>
-      </c>
-      <c r="N37" s="1">
-        <f t="shared" si="4"/>
-        <v>2792.3905368987298</v>
-      </c>
-      <c r="O37" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F32+Sheet1!$B$1)-I37</f>
-        <v>335.14741032810753</v>
-      </c>
-      <c r="P37" s="1">
-        <f t="shared" si="5"/>
-        <v>335.14741032810753</v>
-      </c>
-      <c r="Q37" s="1">
-        <f t="shared" si="9"/>
         <v>0.72762761426782308</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>2041</v>
       </c>
@@ -4480,35 +3991,23 @@
         <v>2649.1180119000001</v>
       </c>
       <c r="J38" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="L38" s="5">
+        <f t="shared" si="5"/>
+        <v>676</v>
+      </c>
+      <c r="N38" s="1">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="L38" s="1">
-        <f t="shared" si="8"/>
-        <v>676</v>
-      </c>
-      <c r="N38" s="1">
-        <f t="shared" si="4"/>
-        <v>2649.1180119000001</v>
-      </c>
-      <c r="O38" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F31+Sheet1!$B$1)-I38</f>
-        <v>879.04743027110089</v>
-      </c>
-      <c r="P38" s="1">
-        <f t="shared" si="5"/>
-        <v>879.04743027110089</v>
-      </c>
-      <c r="Q38" s="1">
-        <f t="shared" si="9"/>
         <v>0.74160255041236289</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>2062</v>
       </c>
@@ -4537,35 +4036,23 @@
         <v>986.40946953090702</v>
       </c>
       <c r="J39" s="1">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="L39" s="5">
+        <f t="shared" si="5"/>
+        <v>324</v>
+      </c>
+      <c r="N39" s="1">
         <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="K39" s="1">
-        <f t="shared" si="7"/>
-        <v>52</v>
-      </c>
-      <c r="L39" s="1">
-        <f t="shared" si="8"/>
-        <v>324</v>
-      </c>
-      <c r="N39" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O39" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F12+Sheet1!$B$1)-I39</f>
-        <v>888.36170899701733</v>
-      </c>
-      <c r="P39" s="1">
-        <f t="shared" si="5"/>
-        <v>888.36170899701733</v>
-      </c>
-      <c r="Q39" s="1">
-        <f t="shared" si="9"/>
         <v>0.90378469738572675</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>2091</v>
       </c>
@@ -4594,35 +4081,23 @@
         <v>1946.5648854961801</v>
       </c>
       <c r="J40" s="1">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="L40" s="5">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="N40" s="1">
         <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="L40" s="1">
-        <f t="shared" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="N40" s="1">
-        <f t="shared" si="4"/>
-        <v>1946.5648854961801</v>
-      </c>
-      <c r="O40" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F25+Sheet1!$B$1)-I40</f>
-        <v>2365.180070294341</v>
-      </c>
-      <c r="P40" s="1">
-        <f t="shared" si="5"/>
-        <v>2365.180070294341</v>
-      </c>
-      <c r="Q40" s="1">
-        <f t="shared" si="9"/>
         <v>0.81013023972144171</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>2131</v>
       </c>
@@ -4651,35 +4126,23 @@
         <v>3340.6797355295098</v>
       </c>
       <c r="J41" s="1">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="L41" s="5">
+        <f t="shared" si="5"/>
+        <v>361</v>
+      </c>
+      <c r="N41" s="1">
         <f t="shared" si="6"/>
-        <v>47</v>
-      </c>
-      <c r="K41" s="1">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-      <c r="L41" s="1">
-        <f t="shared" si="8"/>
-        <v>361</v>
-      </c>
-      <c r="N41" s="1">
-        <f t="shared" si="4"/>
-        <v>3340.6797355295098</v>
-      </c>
-      <c r="O41" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F36+Sheet1!$B$1)-I41</f>
-        <v>-481.60975108727553</v>
-      </c>
-      <c r="P41" s="1">
-        <f t="shared" si="5"/>
-        <v>481.60975108727553</v>
-      </c>
-      <c r="Q41" s="1">
-        <f t="shared" si="9"/>
         <v>0.67414697281424374</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>2175</v>
       </c>
@@ -4708,35 +4171,23 @@
         <v>5615.7093044595304</v>
       </c>
       <c r="J42" s="1">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" si="5"/>
+        <v>1089</v>
+      </c>
+      <c r="N42" s="1">
         <f t="shared" si="6"/>
-        <v>43</v>
-      </c>
-      <c r="K42" s="1">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="L42" s="1">
-        <f t="shared" si="8"/>
-        <v>1089</v>
-      </c>
-      <c r="N42" s="1">
-        <f t="shared" si="4"/>
-        <v>5615.7093044595304</v>
-      </c>
-      <c r="O42" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F54+Sheet1!$B$1)-I42</f>
-        <v>-3610.0846337136745</v>
-      </c>
-      <c r="P42" s="1">
-        <f t="shared" si="5"/>
-        <v>3610.0846337136745</v>
-      </c>
-      <c r="Q42" s="1">
-        <f t="shared" si="9"/>
         <v>0.45223845997817241</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>2201</v>
       </c>
@@ -4765,35 +4216,23 @@
         <v>3883.8760298156099</v>
       </c>
       <c r="J43" s="1">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="N43" s="1">
         <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="K43" s="1">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="L43" s="1">
-        <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="N43" s="1">
-        <f t="shared" si="4"/>
-        <v>3883.8760298156099</v>
-      </c>
-      <c r="O43" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F45+Sheet1!$B$1)-I43</f>
-        <v>-1362.6638590168213</v>
-      </c>
-      <c r="P43" s="1">
-        <f t="shared" si="5"/>
-        <v>1362.6638590168213</v>
-      </c>
-      <c r="Q43" s="1">
-        <f t="shared" si="9"/>
         <v>0.62116309801573499</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>2252</v>
       </c>
@@ -4822,35 +4261,23 @@
         <v>963.67559499667402</v>
       </c>
       <c r="J44" s="1">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="L44" s="5">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="N44" s="1">
         <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="K44" s="1">
-        <f t="shared" si="7"/>
-        <v>53</v>
-      </c>
-      <c r="L44" s="1">
-        <f t="shared" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="N44" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O44" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F11+Sheet1!$B$1)-I44</f>
-        <v>1832.9888665737822</v>
-      </c>
-      <c r="P44" s="1">
-        <f t="shared" si="5"/>
-        <v>1832.9888665737822</v>
-      </c>
-      <c r="Q44" s="1">
-        <f t="shared" si="9"/>
         <v>0.90600218077925743</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>2308</v>
       </c>
@@ -4879,35 +4306,23 @@
         <v>2020.03613072754</v>
       </c>
       <c r="J45" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="L45" s="5">
+        <f t="shared" si="5"/>
+        <v>625</v>
+      </c>
+      <c r="N45" s="1">
         <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="K45" s="1">
-        <f t="shared" si="7"/>
-        <v>38</v>
-      </c>
-      <c r="L45" s="1">
-        <f t="shared" si="8"/>
-        <v>625</v>
-      </c>
-      <c r="N45" s="1">
-        <f t="shared" si="4"/>
-        <v>2020.03613072754</v>
-      </c>
-      <c r="O45" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F26+Sheet1!$B$1)-I45</f>
-        <v>794.51281686205607</v>
-      </c>
-      <c r="P45" s="1">
-        <f t="shared" si="5"/>
-        <v>794.51281686205607</v>
-      </c>
-      <c r="Q45" s="1">
-        <f t="shared" si="9"/>
         <v>0.80296378571655014</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>2328</v>
       </c>
@@ -4936,35 +4351,23 @@
         <v>3341.2552207112799</v>
       </c>
       <c r="J46" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="L46" s="5">
+        <f t="shared" si="5"/>
+        <v>361</v>
+      </c>
+      <c r="N46" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="K46" s="1">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="L46" s="1">
-        <f t="shared" si="8"/>
-        <v>361</v>
-      </c>
-      <c r="N46" s="1">
-        <f t="shared" si="4"/>
-        <v>3341.2552207112799</v>
-      </c>
-      <c r="O46" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F37+Sheet1!$B$1)-I46</f>
-        <v>-1171.5812398163657</v>
-      </c>
-      <c r="P46" s="1">
-        <f t="shared" si="5"/>
-        <v>1171.5812398163657</v>
-      </c>
-      <c r="Q46" s="1">
-        <f t="shared" si="9"/>
         <v>0.67409083945114812</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>2354</v>
       </c>
@@ -4993,38 +4396,26 @@
         <v>345.35974973931098</v>
       </c>
       <c r="J47" s="1">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" si="5"/>
+        <v>961</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="1">
         <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="K47" s="1">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="L47" s="1">
-        <f t="shared" si="8"/>
-        <v>961</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N47" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O47" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F4+Sheet1!$B$1)-I47</f>
-        <v>3097.1595607911054</v>
-      </c>
-      <c r="P47" s="1">
-        <f t="shared" si="5"/>
-        <v>3097.1595607911054</v>
-      </c>
-      <c r="Q47" s="1">
-        <f t="shared" si="9"/>
         <v>0.96631328686680218</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>2373</v>
       </c>
@@ -5053,35 +4444,23 @@
         <v>1132.7879169288799</v>
       </c>
       <c r="J48" s="1">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="L48" s="5">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="N48" s="1">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="K48" s="1">
-        <f t="shared" si="7"/>
-        <v>47</v>
-      </c>
-      <c r="L48" s="1">
-        <f t="shared" si="8"/>
-        <v>1024</v>
-      </c>
-      <c r="N48" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O48" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F17+Sheet1!$B$1)-I48</f>
-        <v>3315.9707836309317</v>
-      </c>
-      <c r="P48" s="1">
-        <f t="shared" si="5"/>
-        <v>3315.9707836309317</v>
-      </c>
-      <c r="Q48" s="1">
-        <f t="shared" si="9"/>
         <v>0.88950680666423843</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>2393</v>
       </c>
@@ -5110,35 +4489,23 @@
         <v>1172.69052519359</v>
       </c>
       <c r="J49" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="L49" s="5">
+        <f t="shared" si="5"/>
+        <v>1936</v>
+      </c>
+      <c r="N49" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="K49" s="1">
-        <f t="shared" si="7"/>
-        <v>46</v>
-      </c>
-      <c r="L49" s="1">
-        <f t="shared" si="8"/>
-        <v>1936</v>
-      </c>
-      <c r="N49" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O49" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F18+Sheet1!$B$1)-I49</f>
-        <v>3473.1754135297019</v>
-      </c>
-      <c r="P49" s="1">
-        <f t="shared" si="5"/>
-        <v>3473.1754135297019</v>
-      </c>
-      <c r="Q49" s="1">
-        <f t="shared" si="9"/>
         <v>0.88561466891832497</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>2417</v>
       </c>
@@ -5167,38 +4534,26 @@
         <v>592.66088273545904</v>
       </c>
       <c r="J50" s="1">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="L50" s="5">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" s="1">
         <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="K50" s="1">
-        <f t="shared" si="7"/>
-        <v>55</v>
-      </c>
-      <c r="L50" s="1">
-        <f t="shared" si="8"/>
-        <v>169</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N50" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O50" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F9+Sheet1!$B$1)-I50</f>
-        <v>2123.5390017529776</v>
-      </c>
-      <c r="P50" s="1">
-        <f t="shared" si="5"/>
-        <v>2123.5390017529776</v>
-      </c>
-      <c r="Q50" s="1">
-        <f t="shared" si="9"/>
         <v>0.94219130296148501</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>2437</v>
       </c>
@@ -5227,35 +4582,23 @@
         <v>3816.99623601759</v>
       </c>
       <c r="J51" s="1">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="L51" s="5">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="N51" s="1">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="K51" s="1">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="L51" s="1">
-        <f t="shared" si="8"/>
-        <v>144</v>
-      </c>
-      <c r="N51" s="1">
-        <f t="shared" si="4"/>
-        <v>3816.99623601759</v>
-      </c>
-      <c r="O51" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F44+Sheet1!$B$1)-I51</f>
-        <v>-589.49638785883008</v>
-      </c>
-      <c r="P51" s="1">
-        <f t="shared" si="5"/>
-        <v>589.49638785883008</v>
-      </c>
-      <c r="Q51" s="1">
-        <f t="shared" si="9"/>
         <v>0.62768661568037865</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>2461</v>
       </c>
@@ -5284,35 +4627,23 @@
         <v>3373.2870026939299</v>
       </c>
       <c r="J52" s="1">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="L52" s="5">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="N52" s="1">
         <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="K52" s="1">
-        <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="L52" s="1">
-        <f t="shared" si="8"/>
-        <v>81</v>
-      </c>
-      <c r="N52" s="1">
-        <f t="shared" si="4"/>
-        <v>3373.2870026939299</v>
-      </c>
-      <c r="O52" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F38+Sheet1!$B$1)-I52</f>
-        <v>-1101.5058032653887</v>
-      </c>
-      <c r="P52" s="1">
-        <f t="shared" si="5"/>
-        <v>1101.5058032653887</v>
-      </c>
-      <c r="Q52" s="1">
-        <f t="shared" si="9"/>
         <v>0.67096642946530249</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>2481</v>
       </c>
@@ -5341,35 +4672,23 @@
         <v>3435.2554894315599</v>
       </c>
       <c r="J53" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="L53" s="5">
+        <f t="shared" si="5"/>
+        <v>225</v>
+      </c>
+      <c r="N53" s="1">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="K53" s="1">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="L53" s="1">
-        <f t="shared" si="8"/>
-        <v>225</v>
-      </c>
-      <c r="N53" s="1">
-        <f t="shared" si="4"/>
-        <v>3435.2554894315599</v>
-      </c>
-      <c r="O53" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F40+Sheet1!$B$1)-I53</f>
-        <v>-639.82592311748976</v>
-      </c>
-      <c r="P53" s="1">
-        <f t="shared" si="5"/>
-        <v>639.82592311748976</v>
-      </c>
-      <c r="Q53" s="1">
-        <f t="shared" si="9"/>
         <v>0.66492196528670433</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>2491</v>
       </c>
@@ -5398,35 +4717,23 @@
         <v>4630.6717689809302</v>
       </c>
       <c r="J54" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="L54" s="5">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="N54" s="1">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="K54" s="1">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="L54" s="1">
-        <f t="shared" si="8"/>
-        <v>144</v>
-      </c>
-      <c r="N54" s="1">
-        <f t="shared" si="4"/>
-        <v>4630.6717689809302</v>
-      </c>
-      <c r="O54" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F48+Sheet1!$B$1)-I54</f>
-        <v>-2014.1531337499946</v>
-      </c>
-      <c r="P54" s="1">
-        <f t="shared" si="5"/>
-        <v>2014.1531337499946</v>
-      </c>
-      <c r="Q54" s="1">
-        <f t="shared" si="9"/>
         <v>0.5483199428613027</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>2513</v>
       </c>
@@ -5455,35 +4762,23 @@
         <v>3715.9692056255599</v>
       </c>
       <c r="J55" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="L55" s="5">
+        <f t="shared" si="5"/>
+        <v>441</v>
+      </c>
+      <c r="N55" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K55" s="1">
-        <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-      <c r="L55" s="1">
-        <f t="shared" si="8"/>
-        <v>441</v>
-      </c>
-      <c r="N55" s="1">
-        <f t="shared" si="4"/>
-        <v>3715.9692056255599</v>
-      </c>
-      <c r="O55" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F42+Sheet1!$B$1)-I55</f>
-        <v>-215.00715480032432</v>
-      </c>
-      <c r="P55" s="1">
-        <f t="shared" si="5"/>
-        <v>215.00715480032432</v>
-      </c>
-      <c r="Q55" s="1">
-        <f t="shared" si="9"/>
         <v>0.63754088675303289</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>2549</v>
       </c>
@@ -5512,35 +4807,23 @@
         <v>320.89783478855099</v>
       </c>
       <c r="J56" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="L56" s="5">
+        <f t="shared" si="5"/>
+        <v>3136</v>
+      </c>
+      <c r="N56" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="K56" s="1">
-        <f t="shared" si="7"/>
-        <v>61</v>
-      </c>
-      <c r="L56" s="1">
-        <f t="shared" si="8"/>
-        <v>3136</v>
-      </c>
-      <c r="N56" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O56" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F3+Sheet1!$B$1)-I56</f>
-        <v>2637.9297699276226</v>
-      </c>
-      <c r="P56" s="1">
-        <f t="shared" si="5"/>
-        <v>2637.9297699276226</v>
-      </c>
-      <c r="Q56" s="1">
-        <f t="shared" si="9"/>
         <v>0.96869932493944078</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>2567</v>
       </c>
@@ -5569,35 +4852,23 @@
         <v>1715.1413403511899</v>
       </c>
       <c r="J57" s="1">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="L57" s="5">
+        <f t="shared" si="5"/>
+        <v>361</v>
+      </c>
+      <c r="N57" s="1">
         <f t="shared" si="6"/>
-        <v>59</v>
-      </c>
-      <c r="K57" s="1">
-        <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="L57" s="1">
-        <f t="shared" si="8"/>
-        <v>361</v>
-      </c>
-      <c r="N57" s="1">
-        <f t="shared" si="4"/>
-        <v>1715.1413403511899</v>
-      </c>
-      <c r="O57" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F24+Sheet1!$B$1)-I57</f>
-        <v>2608.6868282110345</v>
-      </c>
-      <c r="P57" s="1">
-        <f t="shared" si="5"/>
-        <v>2608.6868282110345</v>
-      </c>
-      <c r="Q57" s="1">
-        <f t="shared" si="9"/>
         <v>0.83270350885153444</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>2595</v>
       </c>
@@ -5626,35 +4897,23 @@
         <v>1006.78317421845</v>
       </c>
       <c r="J58" s="1">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="K58" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="L58" s="5">
+        <f t="shared" si="5"/>
+        <v>841</v>
+      </c>
+      <c r="N58" s="1">
         <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="K58" s="1">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="L58" s="1">
-        <f t="shared" si="8"/>
-        <v>841</v>
-      </c>
-      <c r="N58" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O58" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F14+Sheet1!$B$1)-I58</f>
-        <v>2126.0272120711825</v>
-      </c>
-      <c r="P58" s="1">
-        <f t="shared" si="5"/>
-        <v>2126.0272120711825</v>
-      </c>
-      <c r="Q58" s="1">
-        <f t="shared" si="9"/>
         <v>0.90179742716738831</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>2643</v>
       </c>
@@ -5683,35 +4942,23 @@
         <v>9635.9081706186898</v>
       </c>
       <c r="J59" s="1">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="K59" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L59" s="5">
+        <f t="shared" si="5"/>
+        <v>676</v>
+      </c>
+      <c r="N59" s="1">
         <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="K59" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="L59" s="1">
-        <f t="shared" si="8"/>
-        <v>676</v>
-      </c>
-      <c r="N59" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O59" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F62+Sheet1!$B$1)-I59</f>
-        <v>-6339.2525788684179</v>
-      </c>
-      <c r="P59" s="1">
-        <f t="shared" si="5"/>
-        <v>6339.2525788684179</v>
-      </c>
-      <c r="Q59" s="1">
-        <f t="shared" si="9"/>
         <v>6.0104500983426574E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>2665</v>
       </c>
@@ -5740,35 +4987,23 @@
         <v>2387.2415203191799</v>
       </c>
       <c r="J60" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="K60" s="1">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="L60" s="5">
+        <f t="shared" si="5"/>
+        <v>676</v>
+      </c>
+      <c r="N60" s="1">
         <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="K60" s="1">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="L60" s="1">
-        <f t="shared" si="8"/>
-        <v>676</v>
-      </c>
-      <c r="N60" s="1">
-        <f t="shared" si="4"/>
-        <v>2387.2415203191799</v>
-      </c>
-      <c r="O60" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F30+Sheet1!$B$1)-I60</f>
-        <v>495.8476963939961</v>
-      </c>
-      <c r="P60" s="1">
-        <f t="shared" si="5"/>
-        <v>495.8476963939961</v>
-      </c>
-      <c r="Q60" s="1">
-        <f t="shared" si="9"/>
         <v>0.76714622843179148</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>2694</v>
       </c>
@@ -5797,35 +5032,23 @@
         <v>4287.4743326488797</v>
       </c>
       <c r="J61" s="1">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="K61" s="1">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="L61" s="5">
+        <f t="shared" si="5"/>
+        <v>1521</v>
+      </c>
+      <c r="N61" s="1">
         <f t="shared" si="6"/>
-        <v>57</v>
-      </c>
-      <c r="K61" s="1">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="L61" s="1">
-        <f t="shared" si="8"/>
-        <v>1521</v>
-      </c>
-      <c r="N61" s="1">
-        <f t="shared" si="4"/>
-        <v>4287.4743326488797</v>
-      </c>
-      <c r="O61" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F46+Sheet1!$B$1)-I61</f>
-        <v>-1997.5537799310596</v>
-      </c>
-      <c r="P61" s="1">
-        <f t="shared" si="5"/>
-        <v>1997.5537799310596</v>
-      </c>
-      <c r="Q61" s="1">
-        <f t="shared" si="9"/>
         <v>0.58179574192153904</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>2716</v>
       </c>
@@ -5854,35 +5077,23 @@
         <v>3389.77731046279</v>
       </c>
       <c r="J62" s="1">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="K62" s="1">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="L62" s="5">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="N62" s="1">
         <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="K62" s="1">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="L62" s="1">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="N62" s="1">
-        <f t="shared" si="4"/>
-        <v>3389.77731046279</v>
-      </c>
-      <c r="O62" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F39+Sheet1!$B$1)-I62</f>
-        <v>-129.30239879128112</v>
-      </c>
-      <c r="P62" s="1">
-        <f t="shared" si="5"/>
-        <v>129.30239879128112</v>
-      </c>
-      <c r="Q62" s="1">
-        <f t="shared" si="9"/>
         <v>0.66935794941600013</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>2979</v>
       </c>
@@ -5911,271 +5122,188 @@
         <v>459.00353079639001</v>
       </c>
       <c r="J63" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="K63" s="1">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="L63" s="5">
+        <f t="shared" si="5"/>
+        <v>2209</v>
+      </c>
+      <c r="N63" s="1">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="K63" s="1">
-        <f t="shared" si="7"/>
-        <v>59</v>
-      </c>
-      <c r="L63" s="1">
-        <f t="shared" si="8"/>
-        <v>2209</v>
-      </c>
-      <c r="N63" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O63" s="1">
-        <f>(Sheet1!$A$1*processed_survey!F5+Sheet1!$B$1)-I63</f>
-        <v>2978.7094658539781</v>
-      </c>
-      <c r="P63" s="1">
-        <f t="shared" si="5"/>
-        <v>2978.7094658539781</v>
-      </c>
-      <c r="Q63" s="1">
-        <f t="shared" si="9"/>
         <v>0.95522836612913231</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="K64" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="L64" s="1">
         <f>SUM(L2:L63)</f>
         <v>51138</v>
       </c>
-      <c r="N64" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="K65" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="M64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="5:13" x14ac:dyDescent="0.4">
       <c r="L65" s="1">
         <f>COUNT(L2:L63)</f>
         <v>62</v>
       </c>
-      <c r="N65" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="K66" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="M65" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="5:13" x14ac:dyDescent="0.4">
       <c r="L66" s="1">
         <f>1-6*L64/(L65^3-L65)</f>
         <v>-0.2877540228148372</v>
       </c>
-      <c r="N66" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F67" s="1" cm="1">
-        <f t="array" ref="F67:G71">LINEST(F2:F63,I2:I63,TRUE,TRUE)</f>
-        <v>-2.4383342966902644E-6</v>
-      </c>
-      <c r="G67" s="1">
-        <v>4.3303850081267387E-2</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="M66" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="5:13" x14ac:dyDescent="0.4">
       <c r="L67" s="1">
         <f>SQRT(L66^2*(L65-2)/(1-L66^2))</f>
         <v>2.3273707338939822</v>
       </c>
-      <c r="N67" s="1" t="str">
-        <f t="shared" ref="N67:N71" si="10">IF(AND(I67&gt;$I$77,I67&lt;$I$76),I67,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="1">
-        <v>8.8372254501533982E-7</v>
-      </c>
-      <c r="G68" s="1">
-        <v>3.5745686072645015E-3</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="M67" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="5:13" x14ac:dyDescent="0.4">
       <c r="L68" s="1">
         <f>_xlfn.T.DIST.RT(L67,L65-1)</f>
         <v>1.1640247422035318E-2</v>
       </c>
-      <c r="N68" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E69" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F69" s="1">
-        <v>0.11259641290043201</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1.6997115568690862E-2</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="M68" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="5:13" x14ac:dyDescent="0.4">
       <c r="L69" s="1" t="b">
         <f>L68&lt;0.05</f>
         <v>1</v>
       </c>
-      <c r="N69" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="F70" s="1">
+      <c r="M69" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="1" cm="1">
+        <f t="array" ref="F73:G77">LINEST(F2:F63,I2:I63,TRUE,TRUE)</f>
+        <v>-2.4383342966902644E-6</v>
+      </c>
+      <c r="G73" s="1">
+        <v>4.3303850081267387E-2</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" s="1" cm="1">
+        <f t="array" ref="J73:K77">LINEST(J2:J63,K2:K63,TRUE,TRUE)</f>
+        <v>-0.28775402281483714</v>
+      </c>
+      <c r="K73" s="1">
+        <v>40.564251718667371</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="F74" s="1">
+        <v>8.8372254501533982E-7</v>
+      </c>
+      <c r="G74" s="1">
+        <v>3.5745686072645015E-3</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0.12363909996126347</v>
+      </c>
+      <c r="K74" s="1">
+        <v>4.479251945246113</v>
+      </c>
+    </row>
+    <row r="75" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.11259641290043201</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1.6997115568690862E-2</v>
+      </c>
+      <c r="I75" s="1">
+        <f>SQRT(J75)</f>
+        <v>0.28775402281483686</v>
+      </c>
+      <c r="J75" s="1">
+        <v>8.2802377646121653E-2</v>
+      </c>
+      <c r="K75" s="1">
+        <v>17.421929375860103</v>
+      </c>
+    </row>
+    <row r="76" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="F76" s="1">
         <v>7.6129788883396881</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G76" s="1">
         <v>60</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N70" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="F71" s="1">
+      <c r="H76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J76" s="1">
+        <v>5.4166545329861995</v>
+      </c>
+      <c r="K76" s="1">
+        <v>60</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="F77" s="1">
         <v>2.1994043521712421E-3</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G77" s="1">
         <v>1.7334116259325995E-2</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N71" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="I74" s="1">
-        <f>AVERAGE(I2:I63)</f>
-        <v>3224.0672831820348</v>
-      </c>
-    </row>
-    <row r="75" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="I75" s="1">
-        <f>2*STDEV(I2:I63)</f>
-        <v>4925.2056712805752</v>
-      </c>
-    </row>
-    <row r="76" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="H76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I76" s="1">
-        <f>I74+I75</f>
-        <v>8149.27295446261</v>
-      </c>
-    </row>
-    <row r="77" spans="5:14" x14ac:dyDescent="0.4">
       <c r="H77" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I77" s="1">
-        <f>I75-I74</f>
-        <v>1701.1383880985404</v>
+        <v>26</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1644.0826093525684</v>
+      </c>
+      <c r="K77" s="1">
+        <v>18211.417390647432</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O69">
+  <autoFilter ref="A1:M1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M69">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B039A599-3781-43E5-8F9C-D51F076BA07B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{13C22435-B12F-4C71-97F1-6DAB6146DD7F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B039A599-3781-43E5-8F9C-D51F076BA07B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P1:P1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{13C22435-B12F-4C71-97F1-6DAB6146DD7F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>O1:O1048576</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6184,7 +5312,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G62"/>
     </sheetView>
   </sheetViews>
@@ -6240,7 +5368,7 @@
         <v>4.1186400413280602E-2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -6324,7 +5452,7 @@
         <v>4.6440630777459399E-2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
@@ -6338,7 +5466,7 @@
         <v>2.2541944571043901E-2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -6366,7 +5494,7 @@
         <v>6.4662210125440198E-2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -6464,7 +5592,7 @@
         <v>2.6397193455693201E-2</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.4">
@@ -6492,7 +5620,7 @@
         <v>3.3541809328619401E-2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="3:7" hidden="1" x14ac:dyDescent="0.4">
@@ -6506,7 +5634,7 @@
         <v>1.8070392763798598E-2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.4">
@@ -6562,7 +5690,7 @@
         <v>4.4310830303096398E-2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.4">
@@ -6590,7 +5718,7 @@
         <v>3.2519366278034402E-2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="3:7" hidden="1" x14ac:dyDescent="0.4">
@@ -6604,7 +5732,7 @@
         <v>9.7390254785028E-3</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="3:7" hidden="1" x14ac:dyDescent="0.4">
@@ -6618,7 +5746,7 @@
         <v>4.2826554875457397E-2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="3:7" hidden="1" x14ac:dyDescent="0.4">
@@ -6632,7 +5760,7 @@
         <v>2.8857091337533902E-2</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="3:7" hidden="1" x14ac:dyDescent="0.4">
@@ -6646,7 +5774,7 @@
         <v>3.7532889579734899E-2</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="3:7" hidden="1" x14ac:dyDescent="0.4">
@@ -6660,7 +5788,7 @@
         <v>3.2177162288897297E-2</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.4">
@@ -6702,7 +5830,7 @@
         <v>4.3346703930989001E-2</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.4">
@@ -6744,7 +5872,7 @@
         <v>3.4654069985455498E-2</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.4">
@@ -6814,7 +5942,7 @@
         <v>3.53681622573805E-2</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.4">
@@ -6856,7 +5984,7 @@
         <v>3.8728539552325199E-2</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="3:7" hidden="1" x14ac:dyDescent="0.4">
@@ -6870,7 +5998,7 @@
         <v>4.8599280440805498E-2</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="3:7" hidden="1" x14ac:dyDescent="0.4">
@@ -6884,7 +6012,7 @@
         <v>6.7754235606344707E-2</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="3:7" hidden="1" x14ac:dyDescent="0.4">
@@ -6898,7 +6026,7 @@
         <v>2.9730798949182301E-2</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.4">
@@ -6982,7 +6110,7 @@
         <v>6.1765114996013698E-2</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.4">
@@ -7010,7 +6138,7 @@
         <v>4.4596484085801698E-2</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="3:7" hidden="1" x14ac:dyDescent="0.4">
@@ -7024,7 +6152,7 @@
         <v>4.0591010291536798E-2</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.4">
@@ -7080,22 +6208,22 @@
         <v>5.0813041598738798E-2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="3:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="G64" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="3:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="G65" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="3:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="G66" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="3:7" hidden="1" x14ac:dyDescent="0.4">
@@ -7107,7 +6235,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="3:7" hidden="1" x14ac:dyDescent="0.4">
@@ -7115,7 +6243,7 @@
         <v>8.8372254501533982E-7</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="3:7" hidden="1" x14ac:dyDescent="0.4">
@@ -7123,7 +6251,7 @@
         <v>0.11259641290043201</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="3:7" hidden="1" x14ac:dyDescent="0.4">
@@ -7131,7 +6259,7 @@
         <v>7.6129788883396881</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="3:7" hidden="1" x14ac:dyDescent="0.4">
@@ -7139,7 +6267,7 @@
         <v>2.1994043521712421E-3</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
